--- a/fuentes/contenidos/grado09/guion09/EsqueletoGuion_CN_09_09_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion09/EsqueletoGuion_CN_09_09_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1395" windowWidth="19440" windowHeight="11760" tabRatio="729" activeTab="4"/>
+    <workbookView xWindow="3405" yWindow="1395" windowWidth="19440" windowHeight="11760" tabRatio="729" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="CUADERNO DEL PROFESOR" sheetId="15" r:id="rId4"/>
     <sheet name="CUADERNO DE ESTUDIO" sheetId="16" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725" iterateCount="2" iterateDelta="10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="85">
   <si>
     <t>FICHA</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Competencias</t>
   </si>
   <si>
-    <t>Fin de unidad</t>
-  </si>
-  <si>
     <t>Mapa conceptual</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t xml:space="preserve">Mapa conceptual </t>
   </si>
   <si>
-    <t>CN</t>
-  </si>
-  <si>
     <t>Educación Básica Secundaria</t>
   </si>
   <si>
@@ -148,15 +142,9 @@
     <t>CN_09_02_CO</t>
   </si>
   <si>
-    <t>Casi todas las sustancias que encontramos en la naturaleza están mezcladas entre sí. Las combinaciones de compuestos forman las disoluciones. En esta unidad aprenderás todo lo relativo a este tipo de sustancias.</t>
-  </si>
-  <si>
     <t xml:space="preserve">La destilación </t>
   </si>
   <si>
-    <t>CN_09_09</t>
-  </si>
-  <si>
     <t xml:space="preserve">La cristalización </t>
   </si>
   <si>
@@ -178,9 +166,6 @@
     <t>Practica con las disoluciones de gases en líquidos</t>
   </si>
   <si>
-    <t xml:space="preserve">Aprende sobre las disoluciones saturadas y las disoluciones sobresaturadas. </t>
-  </si>
-  <si>
     <t>Calcula el porcentaje en volumen de las disoluciones</t>
   </si>
   <si>
@@ -220,12 +205,6 @@
     <t xml:space="preserve">Texto </t>
   </si>
   <si>
-    <t xml:space="preserve">Actividades sobre las mezclas </t>
-  </si>
-  <si>
-    <t>Actividades sobre las mezclas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solubilidad y concentración de disoluciones </t>
   </si>
   <si>
@@ -236,6 +215,72 @@
   </si>
   <si>
     <t xml:space="preserve">Concentración de las disoluciones </t>
+  </si>
+  <si>
+    <t>3° ESO</t>
+  </si>
+  <si>
+    <t>FQ</t>
+  </si>
+  <si>
+    <t>La destilación</t>
+  </si>
+  <si>
+    <t>FQ_09_05</t>
+  </si>
+  <si>
+    <t>La cristalización</t>
+  </si>
+  <si>
+    <t>Materia homogénea y heterogénea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Las mezclas </t>
+  </si>
+  <si>
+    <t>¿Qué sabes sobre las disoluciones?</t>
+  </si>
+  <si>
+    <t>Aprende sobre las disoluciones saturadas y sobresaturadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprende sobre las disoluciones saturadas y  sobresaturadas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprende sobre las disoluciones saturadas y sobresaturadas. </t>
+  </si>
+  <si>
+    <t>Practica el cálculo del porcentaje en volumen</t>
+  </si>
+  <si>
+    <t>Calcula la masa molar de los compuestos</t>
+  </si>
+  <si>
+    <t>Calcula la molaridad de las disoluciones</t>
+  </si>
+  <si>
+    <t>4º ESO</t>
+  </si>
+  <si>
+    <t>Las reacciones químicas</t>
+  </si>
+  <si>
+    <t>Distingue la molalidad de la molaridad</t>
+  </si>
+  <si>
+    <t>FQ_10_12</t>
+  </si>
+  <si>
+    <t>Calcula la normalidad de las disoluciones</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Las mezclas homogéneas</t>
+  </si>
+  <si>
+    <t>Fin de tema</t>
+  </si>
+  <si>
+    <t>Casi todas las sustancias que encontramos en la naturaleza se encuentran mezcladas, incluso algunas llegan a combinarse y forman disoluciones.</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1544,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1513,7 +1558,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1521,15 +1566,15 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1537,7 +1582,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1553,7 +1598,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1617,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1608,20 +1653,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1">
-      <c r="A2">
-        <v>9</v>
+      <c r="A2" t="s">
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1634,140 +1679,140 @@
       <c r="L2"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3">
-        <v>9</v>
+      <c r="A3" t="s">
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4">
-        <v>9</v>
+      <c r="A4" t="s">
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5">
-        <v>9</v>
+      <c r="A5" t="s">
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6">
-        <v>9</v>
+      <c r="A6" t="s">
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7">
-        <v>9</v>
+      <c r="A7" t="s">
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="5" t="s">
         <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8">
-        <v>9</v>
+      <c r="A8" t="s">
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9">
-        <v>9</v>
+      <c r="A9" t="s">
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1775,20 +1820,20 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1796,20 +1841,20 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>42</v>
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1817,20 +1862,20 @@
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12">
-        <v>9</v>
+      <c r="A12" t="s">
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1838,140 +1883,140 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13">
-        <v>9</v>
+      <c r="A13" t="s">
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>42</v>
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14">
-        <v>9</v>
+      <c r="A14" t="s">
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>42</v>
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15">
-        <v>9</v>
+      <c r="A15" t="s">
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>42</v>
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16">
-        <v>9</v>
+      <c r="A16" t="s">
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>42</v>
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17">
-        <v>9</v>
+      <c r="A17" t="s">
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>42</v>
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18">
-        <v>9</v>
+      <c r="A18" t="s">
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>42</v>
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19">
-        <v>9</v>
+      <c r="A19" t="s">
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -1992,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2015,10 +2060,10 @@
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>19</v>
@@ -2026,10 +2071,10 @@
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -2037,7 +2082,7 @@
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1">
       <c r="A4" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -2048,7 +2093,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -2079,7 +2124,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2105,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>24</v>
@@ -2116,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>27</v>
@@ -2127,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>27</v>
@@ -2138,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>27</v>
@@ -2149,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>27</v>
@@ -2160,7 +2205,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
@@ -2171,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>27</v>
@@ -2182,7 +2227,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>27</v>
@@ -2193,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>27</v>
@@ -2204,7 +2249,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>27</v>
@@ -2215,7 +2260,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>27</v>
@@ -2226,7 +2271,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>27</v>
@@ -2237,7 +2282,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>27</v>
@@ -2248,7 +2293,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>29</v>
@@ -2259,7 +2304,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>29</v>
@@ -2270,7 +2315,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>29</v>
@@ -2281,7 +2326,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>29</v>
@@ -2292,7 +2337,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>29</v>
@@ -2303,7 +2348,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>26</v>
@@ -2314,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>26</v>
@@ -2325,7 +2370,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>26</v>
@@ -2336,7 +2381,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>26</v>
@@ -2362,11 +2407,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2413,10 +2458,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>19</v>
@@ -2429,10 +2474,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>20</v>
@@ -2445,10 +2490,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
@@ -2461,10 +2506,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>25</v>
@@ -2474,7 +2519,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>27</v>
@@ -2482,10 +2527,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>25</v>
@@ -2495,7 +2540,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>27</v>
@@ -2503,10 +2548,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>21</v>
@@ -2519,14 +2564,14 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>19</v>
@@ -2537,14 +2582,14 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>20</v>
@@ -2555,17 +2600,17 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -2573,14 +2618,14 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>20</v>
@@ -2591,14 +2636,14 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>19</v>
@@ -2609,14 +2654,14 @@
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>22</v>
@@ -2627,14 +2672,14 @@
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>25</v>
@@ -2642,37 +2687,41 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1">
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1">
+      <c r="H15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="16" t="s">
@@ -2683,8 +2732,8 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="5" t="s">
-        <v>64</v>
+      <c r="H16" t="s">
+        <v>41</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>27</v>
@@ -2692,10 +2741,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="16" t="s">
@@ -2706,290 +2755,288 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="9" t="s">
+      <c r="H17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>23</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+        <v>59</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="8"/>
+        <v>59</v>
+      </c>
       <c r="D25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="E25" s="18"/>
       <c r="F25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
+        <v>61</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C32"/>
       <c r="D32" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>27</v>
@@ -2997,187 +3044,186 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C33"/>
       <c r="D33" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C34"/>
       <c r="D34" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C35"/>
       <c r="D35" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36"/>
+        <v>59</v>
+      </c>
       <c r="D36" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="H39" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="H42" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>29</v>
@@ -3185,189 +3231,144 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C44"/>
       <c r="D44" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="H44" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
         <v>23</v>
       </c>
-      <c r="H45" t="s">
-        <v>57</v>
+      <c r="H45" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46"/>
-      <c r="D46" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
         <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+    <row r="49" spans="2:9">
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+    </row>
+    <row r="52" spans="2:9">
       <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="53" spans="2:9">
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="2:9">
       <c r="C55"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="2:9">
       <c r="C56"/>
     </row>
-    <row r="57" spans="1:9">
-      <c r="C57"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="C58"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="C59"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="B60" s="21"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="23"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="B61" s="21"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="23"/>
+    <row r="57" spans="2:9">
+      <c r="B57" s="21"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="21"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
